--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -575,7 +575,7 @@
         <v>45863.40695601852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45891.48182870371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>45863.37907407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>45457</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44788.37464120371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44532</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44432.3625925926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44991</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45478</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>45511</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45644.65862268519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>46007.41623842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45611</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45586.55159722222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>45604.62340277778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44512.60774305555</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45622</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>45971.72814814815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>45973.45164351852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>45478</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45505</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>45310</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44690</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44497.4450462963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>45755.65731481482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>45385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45478</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45217</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45558.46092592592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44917</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45041</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>45930</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45478</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45478</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>44911</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>45617.41769675926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45813.61879629629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>45666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45917.61471064815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>45457</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45155.95586805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>45945.34506944445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>45630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>45741.34489583333</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44742</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45560.44495370371</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45825.44150462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>45825</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45919.36138888889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>45832.38615740741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45835.60891203704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44917</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45170</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>45847.42752314815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>45944.40802083333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>45254</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>45973.64320601852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>45537.42907407408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44924</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45254</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>44439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>46006.43400462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>45614.44894675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>45148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>45516.59490740741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45159</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>44845</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>44693</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44872</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>44540</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>44586</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44586</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44809.94574074074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44721.941875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>44281</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>44264</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>44652</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>44340</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>44340</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>44876</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>44488</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>44351</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>44559</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>44600</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>44788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44874.87652777778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>44546</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>44714.94216435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44545</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44879</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44848.44364583334</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44414.93936342592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44368.57520833334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44323</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>44258</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>44459.474375</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>44500</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>44340</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44340</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44323</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44463</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44802.80567129629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44715.92450231482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44540.92355324074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44872</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44425.93820601852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44414</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44400</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44802</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>44824.4777662037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>44871</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44872.36848379629</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44473.51453703704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44302</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44509.3734375</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44614.92071759259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44698</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44449.60212962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44537</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44817</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44679.92644675926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44865</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>44446.67491898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44432</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44581</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44839</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44536</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44281</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>44368</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44711</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>44860</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>44270</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>44872</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44384</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44540</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44348</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44820</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44398.90005787037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44713.93777777778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44365</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44721</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44545</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44684.64351851852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44426</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44854</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44803</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44490</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45453</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45728.65577546296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>45644.70871527777</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45457</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>45551.41037037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>45208</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45517.61046296296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45520</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>45453</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45453</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45560.64682870371</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>45453</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>45057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>45775.44846064815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>45463.68541666667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44851</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>45212.95622685185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>45455</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>45455</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>45642.52351851852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>45520.54362268518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45238.42410879629</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44883.55074074074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45159</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45510</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45460.67993055555</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45299</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44902.74778935185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45390</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45019</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45539</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45758.59927083334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45104.42267361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45240</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45709.53822916667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44777</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>45665.43612268518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>45527.66186342593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44902</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>45167</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>45583.4488425926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44942</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>45309.44717592592</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>44935</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>44935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44935</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45533</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45616.38949074074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44910</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44916</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45166.41417824074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         <v>45514.96258101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>45514.96278935186</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45163.63506944444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45729.78074074074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45433.59936342593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>45771.34158564815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>45798.60709490741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>45511.92803240741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>45511</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>45567.50909722222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>45602.6030787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>45721</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>45518.31344907408</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>45887.52810185185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>45803.65416666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45453</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>45453.63103009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45555.55734953703</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45887.53068287037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>45803.68094907407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>45069</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>45159</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45805.64918981482</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>45240.63961805555</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45805.68605324074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>45805.4591087963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44868</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45884.64471064815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>45887.53356481482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>45805.46100694445</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44882</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>45807.56353009259</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45807.54668981482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45805.86056712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>45148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>45601.69196759259</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44962</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45811.60011574074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45811.61696759259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>45181</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45810.56748842593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>45330</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45174</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45811.37582175926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45741.36424768518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>45811.62070601852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>45555.58457175926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>45890.4875925926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45890.3446412037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45813.49008101852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45813.28868055555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>45463</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>45813.59431712963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45510</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>45813.61297453703</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>45603.44994212963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45891.60611111111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45740.45887731481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45695.71142361111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45813.65725694445</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>45813.60324074074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44902</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>45813.55851851852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>45555.6578125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>45813.67763888889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>45895.55496527778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45483</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>45895.34429398148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45803.6743287037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45816.90836805556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45817</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45817.65678240741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45894.36554398148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45895.34447916667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45533.64309027778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45560.47798611111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44840</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>45646</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45897</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45897</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>45896.38892361111</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44256</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>45897.3653125</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>44673</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>45897.36552083334</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45187</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45896.55915509259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45896.56402777778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45897.57534722222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45896.39108796296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45448</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45019.66755787037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45897</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45901.42340277778</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45898</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45250.62596064815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45898.34947916667</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45819.49827546296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>45901</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45027.92476851852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45902.49125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>45531.6533912037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>45753.47692129629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44771</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>45684.36349537037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>45820.31462962963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45155</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45820.39708333334</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45063</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44813.48686342593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45811.39081018518</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45820.5315625</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>45786.5847337963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>45842.54907407407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>45825</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>45559.48717592593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45513</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>45825</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>45905</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>45875.49266203704</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45758.42686342593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>45842.53322916666</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23431,7 +23431,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44334.33274305556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>45909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>45909</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>45909.33482638889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>45251</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>45786.60166666667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45825.60962962963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>45825.43520833334</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45723.57417824074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45825</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>45909</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45642.49046296296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>45105</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>45911.36961805556</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>45825.4179050926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>45911.36674768518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>45910.4053125</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>45576.4734375</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>45912.63753472222</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24720,7 +24720,7 @@
         <v>45915.56696759259</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>45915.5796412037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45825.77450231482</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45915.49825231481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45915.49835648148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>45915.59162037037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>45915.469375</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>45912.66537037037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>45915.59598379629</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45915.6065162037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45915.59857638889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45826.49050925926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45912.7069675926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45827.66090277778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45912.62778935185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45915.50104166667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45912.52703703703</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45915.61269675926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>45912.44119212963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45915.64064814815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>45912.45751157407</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45915.54738425926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>45915.57237268519</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45915.57604166667</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45826.36219907407</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>44559</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45826</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45916.42311342592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>45523.49219907408</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45226.52811342593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>45831.42009259259</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>45916.34018518519</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44685</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         <v>45916.3115625</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45279</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>45916.42990740741</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45831.57969907407</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45623.70415509259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>45919.46461805556</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>45831.59677083333</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>45918.40694444445</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45919.37033564815</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45299</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45919.36539351852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27410,7 +27410,7 @@
         <v>45919.47009259259</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>45829.71057870371</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45918.38581018519</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>45831.52672453703</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45919.35438657407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45832.41233796296</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45832.36497685185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45832.3862037037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45581.615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45609</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>45665</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>45513.38631944444</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>45436</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45924.68833333333</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>45832.35804398148</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45925</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45267.92677083334</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44340</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>45832</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45666</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45513.40537037037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44281</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>45714.58974537037</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45924.7058912037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45924.70636574074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>45924.7065625</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45924.61528935185</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45832.48483796296</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45520.56268518518</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45520.57090277778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>45924.70613425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>45525.45399305555</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>45924</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>45926.45268518518</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>45929.29958333333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>45835.60241898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>45835.64796296296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45926.37028935185</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45835.7030787037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45686</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45685.40097222223</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45685.40736111111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30018,7 +30018,7 @@
         <v>45460</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>45834.35773148148</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30132,7 +30132,7 @@
         <v>45926.4140162037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>45835.57682870371</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45835.71929398148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45460</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45928.44752314815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>45928.44722222222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>45517.60179398148</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>45463</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>45114</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>45835.61631944445</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>45930.35950231482</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30794,7 +30794,7 @@
         <v>45043</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>45930</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30908,7 +30908,7 @@
         <v>45219.40083333333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44749</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         <v>45838.38635416667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         <v>45838.34214120371</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>45933.47787037037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31193,7 +31193,7 @@
         <v>44794</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31250,7 +31250,7 @@
         <v>45841.66048611111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>45560</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>45560</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>45936.56694444444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
         <v>45841.47648148148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45841.43574074074</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>45939.36655092592</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>45132.71641203704</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>45132</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>45559.44841435185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>45559.45069444444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45545</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>45582.5741087963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>45709</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>45639</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45841.56859953704</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>45938.46792824074</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32274,7 +32274,7 @@
         <v>45506.50579861111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>45842.52545138889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>45842.55579861111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>45943.6072337963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>45939.84310185185</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>45706</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>45530</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>45842.54415509259</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32745,7 +32745,7 @@
         <v>44644.54197916666</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>45293</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>45944.44858796296</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>45945.65</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>45945</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45945</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>45944.42739583334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>45945</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>45945</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>45944.5444212963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         <v>45944.64483796297</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>45755.55481481482</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33439,7 +33439,7 @@
         <v>45831.50638888889</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45847.46929398148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33563,7 +33563,7 @@
         <v>45565.36329861111</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33625,7 +33625,7 @@
         <v>45316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33682,7 +33682,7 @@
         <v>45946.28255787037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45945.8869212963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33796,7 +33796,7 @@
         <v>45946.57048611111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33853,7 +33853,7 @@
         <v>45947.4724074074</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>45175</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33977,7 +33977,7 @@
         <v>45163.57194444445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34039,7 +34039,7 @@
         <v>45950.34607638889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34096,7 +34096,7 @@
         <v>45387</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45537.54291666667</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34220,7 +34220,7 @@
         <v>45857.46918981482</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34282,7 +34282,7 @@
         <v>45861.55259259259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>45861.53163194445</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>45860.56612268519</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>45863.42079861111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>45539</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>45511.55541666667</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44825</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>45867.61493055556</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>45867.31869212963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34820,7 +34820,7 @@
         <v>45867.34467592592</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45952</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45946.30732638889</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45952.65930555556</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35058,7 +35058,7 @@
         <v>45868.34462962963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35115,7 +35115,7 @@
         <v>45728.6524537037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35172,7 +35172,7 @@
         <v>45534</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
         <v>44749</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45665.46650462963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35343,7 +35343,7 @@
         <v>45579.4434375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>45958.34454861111</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         <v>45644.69378472222</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35519,7 +35519,7 @@
         <v>44974</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>45755.51520833333</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35638,7 +35638,7 @@
         <v>45580</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35695,7 +35695,7 @@
         <v>44839.95413194445</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>45875.54960648148</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35819,7 +35819,7 @@
         <v>45875.61523148148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45875.54311342593</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45875.65556712963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36005,7 +36005,7 @@
         <v>44455.43973379629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>45875.60013888889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>45875.61515046296</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36191,7 +36191,7 @@
         <v>45875.61525462963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>45874.63686342593</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>45553.64158564815</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36377,7 +36377,7 @@
         <v>45560.68400462963</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36439,7 +36439,7 @@
         <v>45700.45233796296</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36496,7 +36496,7 @@
         <v>45959.44861111111</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36553,7 +36553,7 @@
         <v>45321.5905787037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36610,7 +36610,7 @@
         <v>45959.44858796296</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>45959.46972222222</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>45877.57743055555</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45114</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45961.45025462963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>44924</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>45145</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>45961.44899305556</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>45961.41300925926</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37138,7 +37138,7 @@
         <v>45961.34489583333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37195,7 +37195,7 @@
         <v>45961.45703703703</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45961.28778935185</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>45961.37951388889</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37366,7 +37366,7 @@
         <v>45061.92824074074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37423,7 +37423,7 @@
         <v>45961.39821759259</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37480,7 +37480,7 @@
         <v>45960.74474537037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45961.28357638889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45960.76365740741</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>45880.5738425926</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>45964.33159722222</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>45965.59125</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>45965.49858796296</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>45841.5943287037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45684</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>45320.95357638889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>45964.51108796296</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45882.59900462963</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45700.44704861111</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>45968.36491898148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>45643.49018518518</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>45882.53344907407</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>45247.45697916667</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>45644.32913194445</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45882.63100694444</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45971.68520833334</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45973.44416666667</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45973.36261574074</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45114</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45973.5440162037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45757</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45973.36351851852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45973.36787037037</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45005</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45114</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45755.60673611111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>44904.43054398148</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45520.61289351852</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39421,7 +39421,7 @@
         <v>45884.41150462963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39478,7 +39478,7 @@
         <v>45155</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>45979.38047453704</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>45978.48197916667</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45979.5778125</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45685.48523148148</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45539</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45545.54909722223</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>45979.454375</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39959,7 +39959,7 @@
         <v>45224.65313657407</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45737.55303240741</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45427</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45763.33773148148</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40197,7 +40197,7 @@
         <v>45436</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40254,7 +40254,7 @@
         <v>45978.49891203704</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40316,7 +40316,7 @@
         <v>45575.67871527778</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40373,7 +40373,7 @@
         <v>45737.41623842593</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40430,7 +40430,7 @@
         <v>45979.46834490741</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40492,7 +40492,7 @@
         <v>45980.25484953704</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40549,7 +40549,7 @@
         <v>45980.44158564815</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40611,7 +40611,7 @@
         <v>45980.33506944445</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40673,7 +40673,7 @@
         <v>45980.59350694445</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40735,7 +40735,7 @@
         <v>45462.96380787037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         <v>45980.42696759259</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40859,7 +40859,7 @@
         <v>45980.45418981482</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40921,7 +40921,7 @@
         <v>45452.64719907408</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40978,7 +40978,7 @@
         <v>45982.54563657408</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45971.73069444444</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44491</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45526</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41216,7 +41216,7 @@
         <v>45576.58743055556</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>45985.67225694445</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41335,7 +41335,7 @@
         <v>45558.49664351852</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41417,7 +41417,7 @@
         <v>45985.47521990741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41474,7 +41474,7 @@
         <v>45397.48680555556</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41531,7 +41531,7 @@
         <v>45985.3935300926</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41588,7 +41588,7 @@
         <v>45743.58413194444</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41645,7 +41645,7 @@
         <v>45019</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41702,7 +41702,7 @@
         <v>44552</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41759,7 +41759,7 @@
         <v>46029.65706018519</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>45534.40083333333</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>45739</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>45469.61787037037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41997,7 +41997,7 @@
         <v>45554.47363425926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42054,7 +42054,7 @@
         <v>45554.49422453704</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42111,7 +42111,7 @@
         <v>46031</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42168,7 +42168,7 @@
         <v>45989.53918981482</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42230,7 +42230,7 @@
         <v>44917</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42287,7 +42287,7 @@
         <v>45163.80377314815</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42344,7 +42344,7 @@
         <v>46031.57356481482</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>45988.57400462963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>45677.58578703704</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42515,7 +42515,7 @@
         <v>45763.48916666667</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>46035.48497685185</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42634,7 +42634,7 @@
         <v>45993.52770833333</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42691,7 +42691,7 @@
         <v>45750.43831018519</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>45163</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>45616.38167824074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44494</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42934,7 +42934,7 @@
         <v>45993.4699537037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42991,7 +42991,7 @@
         <v>45993.39003472222</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43048,7 +43048,7 @@
         <v>45645.47677083333</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
         <v>45994.35525462963</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43162,7 +43162,7 @@
         <v>44925</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         <v>45994.65283564815</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45622.37261574074</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45629.62143518519</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45995.6921412037</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45995.46840277778</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>45995.45458333333</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>45994.34052083334</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44659</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43690,7 +43690,7 @@
         <v>45994.65636574074</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>45635</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43814,7 +43814,7 @@
         <v>45996</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43928,7 +43928,7 @@
         <v>44944</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44886</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44047,7 +44047,7 @@
         <v>45537</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45537</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44944</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>44610</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>45538.61142361111</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>45331</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>45216.95886574074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44476,7 +44476,7 @@
         <v>45999.63164351852</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44533,7 +44533,7 @@
         <v>46041.56930555555</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44590,7 +44590,7 @@
         <v>46041.65482638889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44647,7 +44647,7 @@
         <v>45230.59909722222</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44709,7 +44709,7 @@
         <v>46000.49335648148</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44766,7 +44766,7 @@
         <v>44914.33509259259</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44828,7 +44828,7 @@
         <v>45243.72438657407</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>45250.42211805555</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>45463</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45004,7 +45004,7 @@
         <v>46000.32271990741</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45061,7 +45061,7 @@
         <v>45748.35021990741</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>46000.50599537037</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45185,7 +45185,7 @@
         <v>46002.34806712963</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>46001.79376157407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>46002.58956018519</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>45385</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45413,7 +45413,7 @@
         <v>45512.92917824074</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45470,7 +45470,7 @@
         <v>45260</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45527,7 +45527,7 @@
         <v>46001.76815972223</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45584,7 +45584,7 @@
         <v>45474</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45646,7 +45646,7 @@
         <v>45338</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45703,7 +45703,7 @@
         <v>45468</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>45526</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44783.54429398148</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45889,7 +45889,7 @@
         <v>46002.58393518518</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45946,7 +45946,7 @@
         <v>45001</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46008,7 +46008,7 @@
         <v>46002.35224537037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46065,7 +46065,7 @@
         <v>45616.38535879629</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46127,7 +46127,7 @@
         <v>45616.4003125</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46189,7 +46189,7 @@
         <v>45616.41386574074</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46251,7 +46251,7 @@
         <v>46006.47486111111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46313,7 +46313,7 @@
         <v>46006.55251157407</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46375,7 +46375,7 @@
         <v>45630.47672453704</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46437,7 +46437,7 @@
         <v>45326.97043981482</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46499,7 +46499,7 @@
         <v>45740.60420138889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
         <v>46006.61762731482</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46613,7 +46613,7 @@
         <v>46006.61631944445</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46670,7 +46670,7 @@
         <v>45601</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46727,7 +46727,7 @@
         <v>44925.66795138889</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46784,7 +46784,7 @@
         <v>46006.44251157407</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46846,7 +46846,7 @@
         <v>45560</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>46049.5721412037</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>46049.48510416667</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>45628.48769675926</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>46050.40957175926</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>46008.49003472222</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>45771.64439814815</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47255,7 +47255,7 @@
         <v>46009.55274305555</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47312,7 +47312,7 @@
         <v>45162.94581018519</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47374,7 +47374,7 @@
         <v>45007.95096064815</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>45596.46950231482</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>45540.58892361111</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>46009.59429398148</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44925</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47788,7 +47788,7 @@
         <v>46009.46953703704</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47845,7 +47845,7 @@
         <v>45645.45579861111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47902,7 +47902,7 @@
         <v>45225.40269675926</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47959,7 +47959,7 @@
         <v>46009.59435185185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48016,7 +48016,7 @@
         <v>45307</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48078,7 +48078,7 @@
         <v>46031</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48140,7 +48140,7 @@
         <v>45537</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48202,7 +48202,7 @@
         <v>45685</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         <v>45135.58939814815</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48321,7 +48321,7 @@
         <v>46010.60195601852</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48378,7 +48378,7 @@
         <v>45390</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48435,7 +48435,7 @@
         <v>45751.67792824074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48497,7 +48497,7 @@
         <v>45597</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48554,7 +48554,7 @@
         <v>44423.50511574074</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48611,7 +48611,7 @@
         <v>44915</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48673,7 +48673,7 @@
         <v>45559.49487268519</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48735,7 +48735,7 @@
         <v>45076.94684027778</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48797,7 +48797,7 @@
         <v>45457</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>45520.51991898148</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>45469.5581712963</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48983,7 +48983,7 @@
         <v>46014.44509259259</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49040,7 +49040,7 @@
         <v>46014.44158564815</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49097,7 +49097,7 @@
         <v>46014.44659722222</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>45481.45671296296</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49216,7 +49216,7 @@
         <v>45453</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49278,7 +49278,7 @@
         <v>45646.63126157408</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49335,7 +49335,7 @@
         <v>45478</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49417,7 +49417,7 @@
         <v>45244</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49474,7 +49474,7 @@
         <v>46059.3803125</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49536,7 +49536,7 @@
         <v>45616.31673611111</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>46059.40054398148</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45569.35552083333</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49712,7 +49712,7 @@
         <v>44910</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49774,7 +49774,7 @@
         <v>45152.44956018519</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49836,7 +49836,7 @@
         <v>44973.80899305556</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49898,7 +49898,7 @@
         <v>45625.58225694444</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49955,7 +49955,7 @@
         <v>45405</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50012,7 +50012,7 @@
         <v>45425</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>45554.47037037037</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>45558.67090277778</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50188,7 +50188,7 @@
         <v>45328</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50245,7 +50245,7 @@
         <v>44886</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50302,7 +50302,7 @@
         <v>44995</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>45514.96219907407</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>45544</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>45517.61690972222</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44924.94068287037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50607,7 +50607,7 @@
         <v>45513.56297453704</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>45385.57305555556</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50726,7 +50726,7 @@
         <v>45509.45523148148</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50783,7 +50783,7 @@
         <v>45629.46908564815</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50845,7 +50845,7 @@
         <v>44845</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50902,7 +50902,7 @@
         <v>45676.86069444445</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50959,7 +50959,7 @@
         <v>45159</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>44441</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         <v>45229</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>45260.96678240741</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51212,7 +51212,7 @@
         <v>45559.43212962963</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51274,7 +51274,7 @@
         <v>44889</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51336,7 +51336,7 @@
         <v>45104.39052083333</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51398,7 +51398,7 @@
         <v>44818</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>44938.93825231482</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51517,7 +51517,7 @@
         <v>44902</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51574,7 +51574,7 @@
         <v>45596</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51631,7 +51631,7 @@
         <v>45420</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51688,7 +51688,7 @@
         <v>44641</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51745,7 +51745,7 @@
         <v>45555.48571759259</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51807,7 +51807,7 @@
         <v>45616.38693287037</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51869,7 +51869,7 @@
         <v>45719.64917824074</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51926,7 +51926,7 @@
         <v>45569.67591435185</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>45232</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>45763.26912037037</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45231</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>45538.53047453704</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45161.6918287037</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52293,7 +52293,7 @@
         <v>45537</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>45771.90070601852</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>45771</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52469,7 +52469,7 @@
         <v>44693</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45674.40556712963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45754</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45226.64099537037</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45448.70927083334</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52764,7 +52764,7 @@
         <v>45453.95478009259</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>45583.59901620371</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52888,7 +52888,7 @@
         <v>45645.41027777778</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52945,7 +52945,7 @@
         <v>45569.46443287037</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53007,7 +53007,7 @@
         <v>45042.92578703703</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53064,7 +53064,7 @@
         <v>45560.38535879629</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53126,7 +53126,7 @@
         <v>45560.46020833333</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>45596</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>45596.54178240741</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>45483.97041666666</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44383.37496527778</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44911.93910879629</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53483,7 +53483,7 @@
         <v>45677</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53540,7 +53540,7 @@
         <v>45532.74556712963</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53597,7 +53597,7 @@
         <v>45098</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         <v>45748.55476851852</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53721,7 +53721,7 @@
         <v>45442</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53783,7 +53783,7 @@
         <v>45644.36103009259</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53845,7 +53845,7 @@
         <v>45344</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53902,7 +53902,7 @@
         <v>45145</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53964,7 +53964,7 @@
         <v>45603.3777662037</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54026,7 +54026,7 @@
         <v>45327</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54083,7 +54083,7 @@
         <v>45215.57974537037</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54140,7 +54140,7 @@
         <v>45513.9633912037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54202,7 +54202,7 @@
         <v>44881</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54259,7 +54259,7 @@
         <v>45267</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54316,7 +54316,7 @@
         <v>45737.58700231482</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54373,7 +54373,7 @@
         <v>45560.64589120371</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54435,7 +54435,7 @@
         <v>45531.69771990741</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54497,7 +54497,7 @@
         <v>45447</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54554,7 +54554,7 @@
         <v>45211</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54611,7 +54611,7 @@
         <v>45665</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54673,7 +54673,7 @@
         <v>45247</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54735,7 +54735,7 @@
         <v>45151.94431712963</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54797,7 +54797,7 @@
         <v>45541.42739583334</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54859,7 +54859,7 @@
         <v>45541.42741898148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54921,7 +54921,7 @@
         <v>45069</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54978,7 +54978,7 @@
         <v>45559.43377314815</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55040,7 +55040,7 @@
         <v>45453.92482638889</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55097,7 +55097,7 @@
         <v>44977.98320601852</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55159,7 +55159,7 @@
         <v>45513.96297453704</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55221,7 +55221,7 @@
         <v>45113</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55278,7 +55278,7 @@
         <v>44971</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55335,7 +55335,7 @@
         <v>45329</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55392,7 +55392,7 @@
         <v>45684.62690972222</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55449,7 +55449,7 @@
         <v>44916</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55511,7 +55511,7 @@
         <v>45616.65744212963</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55573,7 +55573,7 @@
         <v>44925.59396990741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55630,7 +55630,7 @@
         <v>44614</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55687,7 +55687,7 @@
         <v>44479</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55744,7 +55744,7 @@
         <v>45513.45313657408</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55806,7 +55806,7 @@
         <v>44860</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55863,7 +55863,7 @@
         <v>45740.61157407407</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55920,7 +55920,7 @@
         <v>45560.60815972222</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55982,7 +55982,7 @@
         <v>45560.64923611111</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56044,7 +56044,7 @@
         <v>45560.65291666667</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56106,7 +56106,7 @@
         <v>45254.6369675926</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56163,7 +56163,7 @@
         <v>45734.65295138889</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56220,7 +56220,7 @@
         <v>45665.43998842593</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56277,7 +56277,7 @@
         <v>45737.38648148148</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56334,7 +56334,7 @@
         <v>45163.61561342593</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56396,7 +56396,7 @@
         <v>45603.67048611111</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56453,7 +56453,7 @@
         <v>45715.67895833333</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56510,7 +56510,7 @@
         <v>45740.6012962963</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56567,7 +56567,7 @@
         <v>44925.62908564815</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56624,7 +56624,7 @@
         <v>44925.63877314814</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56681,7 +56681,7 @@
         <v>44455</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56738,7 +56738,7 @@
         <v>45518</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56795,7 +56795,7 @@
         <v>45068.3797337963</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56852,7 +56852,7 @@
         <v>45559.4494675926</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56914,7 +56914,7 @@
         <v>45260</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56976,7 +56976,7 @@
         <v>45665</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57038,7 +57038,7 @@
         <v>45530</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -57095,7 +57095,7 @@
         <v>45484.85026620371</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -57152,7 +57152,7 @@
         <v>44565.92798611111</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57209,7 +57209,7 @@
         <v>45448</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57271,7 +57271,7 @@
         <v>44572</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57328,7 +57328,7 @@
         <v>45530</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57390,7 +57390,7 @@
         <v>45737.41443287037</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57447,7 +57447,7 @@
         <v>44925</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57504,7 +57504,7 @@
         <v>45460</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57566,7 +57566,7 @@
         <v>45568.93936342592</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57623,7 +57623,7 @@
         <v>45560</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57685,7 +57685,7 @@
         <v>45105.94494212963</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>44376</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57804,7 +57804,7 @@
         <v>45514.96238425926</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45306.97434027777</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57928,7 +57928,7 @@
         <v>45601</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57985,7 +57985,7 @@
         <v>45601</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -58042,7 +58042,7 @@
         <v>45520.46878472222</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -58104,7 +58104,7 @@
         <v>45559.55923611111</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -58166,7 +58166,7 @@
         <v>45261.96797453704</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58228,7 +58228,7 @@
         <v>45261</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58290,7 +58290,7 @@
         <v>45740.61497685185</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58347,7 +58347,7 @@
         <v>45338</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58404,7 +58404,7 @@
         <v>45635.45777777778</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58461,7 +58461,7 @@
         <v>45674</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58518,7 +58518,7 @@
         <v>45589.65295138889</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58580,7 +58580,7 @@
         <v>45589.6599074074</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58642,7 +58642,7 @@
         <v>45677.39728009259</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         <v>45471</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58761,7 +58761,7 @@
         <v>45628</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58823,7 +58823,7 @@
         <v>45628</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58885,7 +58885,7 @@
         <v>45453</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58947,7 +58947,7 @@
         <v>45453</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -59009,7 +59009,7 @@
         <v>45754.67600694444</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -59066,7 +59066,7 @@
         <v>45614.44842592593</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -59128,7 +59128,7 @@
         <v>45614.44863425926</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -59190,7 +59190,7 @@
         <v>45743</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -59247,7 +59247,7 @@
         <v>45666</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -59309,7 +59309,7 @@
         <v>45210</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59371,7 +59371,7 @@
         <v>45701.91782407407</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59428,7 +59428,7 @@
         <v>45600.60490740741</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59485,7 +59485,7 @@
         <v>45452</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59542,7 +59542,7 @@
         <v>45643.49013888889</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59604,7 +59604,7 @@
         <v>45646.62806712963</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59661,7 +59661,7 @@
         <v>45436</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59723,7 +59723,7 @@
         <v>45630.34488425926</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59785,7 +59785,7 @@
         <v>45737.59420138889</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59842,7 +59842,7 @@
         <v>45776.63987268518</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59899,7 +59899,7 @@
         <v>45777</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59961,7 +59961,7 @@
         <v>45777.44890046296</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45777</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -60085,7 +60085,7 @@
         <v>45776</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -60142,7 +60142,7 @@
         <v>45777</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -60204,7 +60204,7 @@
         <v>45777</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -60266,7 +60266,7 @@
         <v>45777</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -60328,7 +60328,7 @@
         <v>45776.6444212963</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60385,7 +60385,7 @@
         <v>44949</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60447,7 +60447,7 @@
         <v>44875</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60509,7 +60509,7 @@
         <v>45783.51090277778</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         <v>45782.62412037037</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60633,7 +60633,7 @@
         <v>45783.44258101852</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60695,7 +60695,7 @@
         <v>45785.94577546296</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60752,7 +60752,7 @@
         <v>45786.5508449074</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60814,7 +60814,7 @@
         <v>45789.33638888889</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60871,7 +60871,7 @@
         <v>45786.47739583333</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60933,7 +60933,7 @@
         <v>45789.6282175926</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60995,7 +60995,7 @@
         <v>45789.29510416667</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -61052,7 +61052,7 @@
         <v>45788.52340277778</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -61114,7 +61114,7 @@
         <v>45296</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -61171,7 +61171,7 @@
         <v>45460.62152777778</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -61233,7 +61233,7 @@
         <v>45790.40627314815</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -61290,7 +61290,7 @@
         <v>45793.44201388889</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -61352,7 +61352,7 @@
         <v>45793.44805555556</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -61429,7 +61429,7 @@
         <v>45793.44913194444</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -61486,7 +61486,7 @@
         <v>45796.67317129629</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -61548,7 +61548,7 @@
         <v>45793</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -61605,7 +61605,7 @@
         <v>44652</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -61662,7 +61662,7 @@
         <v>45796.41136574074</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -61724,7 +61724,7 @@
         <v>45671.49204861111</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -61781,7 +61781,7 @@
         <v>45320.95365740741</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -61843,7 +61843,7 @@
         <v>45794</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -61900,7 +61900,7 @@
         <v>45516.43074074074</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>

--- a/Översikt VINDELN.xlsx
+++ b/Översikt VINDELN.xlsx
@@ -575,7 +575,7 @@
         <v>45863.40695601852</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45891.48182870371</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>45863.37907407407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>45457</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44788.37464120371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44532</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44432.3625925926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44991</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45478</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>45511</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45644.65862268519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>46007.41623842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45611</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45586.55159722222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>45604.62340277778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>44512.60774305555</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>45622</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>45971.72814814815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>45973.45164351852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>45478</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>45505</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>45310</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44690</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44497.4450462963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>45755.65731481482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>45385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45478</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45217</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45558.46092592592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44917</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45041</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>45930</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45478</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45478</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>44911</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>45617.41769675926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45813.61879629629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>45666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45917.61471064815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>45457</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45155.95586805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>45945.34506944445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>45630</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>45741.34489583333</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44742</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45560.44495370371</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45825.44150462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>45825</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45919.36138888889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>45832.38615740741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>45835.60891203704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44917</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45170</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>45847.42752314815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>45944.40802083333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>45254</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>45973.64320601852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>45537.42907407408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>44924</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45254</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>44439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>46006.43400462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>45614.44894675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>45148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>45516.59490740741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45159</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>44845</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>44693</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44872</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>44540</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44384</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>44586</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44586</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>44809.94574074074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44721.941875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>44281</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>44264</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>44652</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>44340</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>44340</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>44876</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>44488</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>44351</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>44559</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>44600</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>44788</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44874.87652777778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>44546</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>44714.94216435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44545</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44879</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44848.44364583334</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>44414.93936342592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44368.57520833334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44797</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44323</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>44875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>44258</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>44459.474375</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>44500</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>44340</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44340</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44323</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44463</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44802.80567129629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44715.92450231482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44540.92355324074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44872</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         <v>44536</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>44425.93820601852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44414</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44400</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44802</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>44824.4777662037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>44871</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>44872.36848379629</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44473.51453703704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44302</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44509.3734375</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44614.92071759259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44698</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44449.60212962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44537</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44817</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44679.92644675926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44865</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>44446.67491898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44685</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44432</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44581</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44839</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44536</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44281</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>44368</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44711</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>44860</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>44270</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>44872</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44743</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44384</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44540</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44348</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44511</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44820</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44398.90005787037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44600</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44713.93777777778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44365</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44721</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44545</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44684.64351851852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44426</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44854</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44803</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44490</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45453</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>45728.65577546296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>45644.70871527777</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>45457</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>45551.41037037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>45208</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>45132</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>45517.61046296296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45520</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>45453</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45453</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45560.64682870371</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>45453</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>45057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>44965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>45775.44846064815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>45463.68541666667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44851</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>45212.95622685185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>45455</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>45455</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>45642.52351851852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>45520.54362268518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>45238.42410879629</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44883.55074074074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45159</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45510</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45460.67993055555</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45299</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44902.74778935185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45390</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45019</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45539</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45758.59927083334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>45104.42267361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45240</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45709.53822916667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44777</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>45665.43612268518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>45527.66186342593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44902</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>45167</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>45583.4488425926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>44942</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>45309.44717592592</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>44935</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>44935</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44935</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45533</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45616.38949074074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44910</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44916</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44874</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45166.41417824074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         <v>45514.96258101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>45514.96278935186</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45163.63506944444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45729.78074074074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45433.59936342593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>45771.34158564815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>45798.60709490741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>45511.92803240741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>45511</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>45567.50909722222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>45602.6030787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>45721</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>45518.31344907408</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>45887.52810185185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>45803.65416666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>45453</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>45453.63103009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45555.55734953703</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45887.53068287037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>45803.68094907407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>45069</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>45159</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>45805.64918981482</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>45240.63961805555</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>45805.68605324074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>45805.4591087963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44868</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45884.64471064815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>45887.53356481482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>45805.46100694445</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44882</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>45807.56353009259</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45807.54668981482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45805.86056712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>45148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>45601.69196759259</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44962</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45811.60011574074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45811.61696759259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>45181</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45810.56748842593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>45330</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45174</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45811.37582175926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45741.36424768518</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>45811.62070601852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>45555.58457175926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>45890.4875925926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45890.3446412037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45813.49008101852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45813.28868055555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>45463</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>45813.59431712963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45510</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>45813.61297453703</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>45603.44994212963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45891.60611111111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45740.45887731481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45695.71142361111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45813.65725694445</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>45813.60324074074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44902</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>45813.55851851852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>45555.6578125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>45813.67763888889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>45895.55496527778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45483</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>45895.34429398148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45803.6743287037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45816.90836805556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45817</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45817.65678240741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45894.36554398148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45895.34447916667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45533.64309027778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45560.47798611111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44840</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>45646</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45897</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45897</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>45896.38892361111</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>44256</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>45897.3653125</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>44673</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>45897.36552083334</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45187</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45896.55915509259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45896.56402777778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45897.57534722222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45896.39108796296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45448</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>45019.66755787037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45897</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45901.42340277778</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45898</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45250.62596064815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45898.34947916667</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45819.49827546296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>45901</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45027.92476851852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45902.49125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>45531.6533912037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>45753.47692129629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44771</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>45684.36349537037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>45820.31462962963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45155</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45820.39708333334</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45063</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44813.48686342593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45811.39081018518</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45820.5315625</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>45786.5847337963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>45842.54907407407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>45825</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>45559.48717592593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45513</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>45825</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>45905</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>45875.49266203704</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45758.42686342593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>45842.53322916666</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23431,7 +23431,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44334.33274305556</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>45909</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>45909</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>45909.33482638889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>45251</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>45786.60166666667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45825.60962962963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>45825.43520833334</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45723.57417824074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45825</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>45909</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45642.49046296296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>45105</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>45911.36961805556</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>45825.4179050926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>45911.36674768518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>45910.4053125</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44987</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>45576.4734375</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>45912.63753472222</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24720,7 +24720,7 @@
         <v>45915.56696759259</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>45915.5796412037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>45825.77450231482</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45915.49825231481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45915.49835648148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>45915.59162037037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>45915.469375</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         <v>45912.66537037037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25206,7 +25206,7 @@
         <v>45915.59598379629</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25268,7 +25268,7 @@
         <v>45915.6065162037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45915.59857638889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45826.49050925926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45912.7069675926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45827.66090277778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45912.62778935185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45915.50104166667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45912.52703703703</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45915.61269675926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>45912.44119212963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45915.64064814815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>45912.45751157407</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45915.54738425926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>45915.57237268519</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45915.57604166667</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45826.36219907407</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>44559</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45826</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45916.42311342592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>45523.49219907408</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45226.52811342593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>45831.42009259259</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>45916.34018518519</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44685</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         <v>45916.3115625</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45279</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>45916.42990740741</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26882,7 +26882,7 @@
         <v>45831.57969907407</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>45623.70415509259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>45919.46461805556</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>45831.59677083333</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>45918.40694444445</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45919.37033564815</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45299</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45919.36539351852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27410,7 +27410,7 @@
         <v>45919.47009259259</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>45829.71057870371</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45918.38581018519</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>45831.52672453703</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27643,7 +27643,7 @@
         <v>45919.35438657407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>45434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>45832.41233796296</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45832.36497685185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45832.3862037037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45581.615</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45609</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>45665</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>45513.38631944444</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>45436</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45924.68833333333</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>45832.35804398148</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45925</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45267.92677083334</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44340</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28533,7 +28533,7 @@
         <v>45832</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45666</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45513.40537037037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44281</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>45714.58974537037</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45924.7058912037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45924.70636574074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>45924.7065625</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45924.61528935185</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45832.48483796296</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45520.56268518518</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45520.57090277778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>45924.70613425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>45525.45399305555</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>45924</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>45148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>45926.45268518518</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>45929.29958333333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>45835.60241898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>45835.64796296296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45926.37028935185</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45835.7030787037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45686</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45685.40097222223</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45685.40736111111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30018,7 +30018,7 @@
         <v>45460</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>45834.35773148148</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30132,7 +30132,7 @@
         <v>45926.4140162037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>45835.57682870371</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45835.71929398148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45460</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45928.44752314815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>45928.44722222222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>45517.60179398148</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>45463</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>45114</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>45835.61631944445</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>45930.35950231482</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30794,7 +30794,7 @@
         <v>45043</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30851,7 +30851,7 @@
         <v>45930</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30908,7 +30908,7 @@
         <v>45219.40083333333</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>44749</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         <v>45838.38635416667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         <v>45838.34214120371</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>45933.47787037037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31193,7 +31193,7 @@
         <v>44794</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31250,7 +31250,7 @@
         <v>45841.66048611111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
         <v>45560</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>45560</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>45936.56694444444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
         <v>45841.47648148148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45841.43574074074</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>45939.36655092592</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>45132.71641203704</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>45132</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>45559.44841435185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>45559.45069444444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45545</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31979,7 +31979,7 @@
         <v>45582.5741087963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>45709</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32093,7 +32093,7 @@
         <v>45639</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45841.56859953704</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>45938.46792824074</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32274,7 +32274,7 @@
         <v>45506.50579861111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>45842.52545138889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>45842.55579861111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>45943.6072337963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>45939.84310185185</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>45706</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>45530</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>45842.54415509259</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32745,7 +32745,7 @@
         <v>44644.54197916666</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>45293</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>45944.44858796296</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>45945.65</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>45945</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45945</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>45944.42739583334</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>45945</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>45945</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>45944.5444212963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         <v>45944.64483796297</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>45755.55481481482</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33439,7 +33439,7 @@
         <v>45831.50638888889</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33501,7 +33501,7 @@
         <v>45847.46929398148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33563,7 +33563,7 @@
         <v>45565.36329861111</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33625,7 +33625,7 @@
         <v>45316</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33682,7 +33682,7 @@
         <v>45946.28255787037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45945.8869212963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33796,7 +33796,7 @@
         <v>45946.57048611111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33853,7 +33853,7 @@
         <v>45947.4724074074</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>45175</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33977,7 +33977,7 @@
         <v>45163.57194444445</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34039,7 +34039,7 @@
         <v>45950.34607638889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34096,7 +34096,7 @@
         <v>45387</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45537.54291666667</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34220,7 +34220,7 @@
         <v>45857.46918981482</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34282,7 +34282,7 @@
         <v>45861.55259259259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>45861.53163194445</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>45860.56612268519</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34463,7 +34463,7 @@
         <v>45863.42079861111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>45539</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>45511.55541666667</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44825</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>45867.61493055556</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>45867.31869212963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34820,7 +34820,7 @@
         <v>45867.34467592592</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45952</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45946.30732638889</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45952.65930555556</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35058,7 +35058,7 @@
         <v>45868.34462962963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35115,7 +35115,7 @@
         <v>45728.6524537037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35172,7 +35172,7 @@
         <v>45534</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
         <v>44749</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45665.46650462963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35343,7 +35343,7 @@
         <v>45579.4434375</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>45958.34454861111</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         <v>45644.69378472222</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35519,7 +35519,7 @@
         <v>44974</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>45755.51520833333</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35638,7 +35638,7 @@
         <v>45580</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35695,7 +35695,7 @@
         <v>44839.95413194445</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>45875.54960648148</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35819,7 +35819,7 @@
         <v>45875.61523148148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45875.54311342593</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45875.65556712963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36005,7 +36005,7 @@
         <v>44455.43973379629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>45875.60013888889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>45875.61515046296</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36191,7 +36191,7 @@
         <v>45875.61525462963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36253,7 +36253,7 @@
         <v>45874.63686342593</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>45553.64158564815</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36377,7 +36377,7 @@
         <v>45560.68400462963</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36439,7 +36439,7 @@
         <v>45700.45233796296</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36496,7 +36496,7 @@
         <v>45959.44861111111</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36553,7 +36553,7 @@
         <v>45321.5905787037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36610,7 +36610,7 @@
         <v>45959.44858796296</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>45959.46972222222</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>45877.57743055555</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45114</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45961.45025462963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>44924</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>45145</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>45961.44899305556</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>45961.41300925926</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37138,7 +37138,7 @@
         <v>45961.34489583333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37195,7 +37195,7 @@
         <v>45961.45703703703</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45961.28778935185</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>45961.37951388889</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37366,7 +37366,7 @@
         <v>45061.92824074074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37423,7 +37423,7 @@
         <v>45961.39821759259</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37480,7 +37480,7 @@
         <v>45960.74474537037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45961.28357638889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45960.76365740741</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>45880.5738425926</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>45964.33159722222</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>45965.59125</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>45965.49858796296</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>45841.5943287037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45684</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>45320.95357638889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>45964.51108796296</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45882.59900462963</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>44963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45700.44704861111</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38313,7 +38313,7 @@
         <v>45968.36491898148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>45643.49018518518</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>45882.53344907407</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>45247.45697916667</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>45644.32913194445</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45882.63100694444</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45971.68520833334</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>45973.44416666667</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38789,7 +38789,7 @@
         <v>45973.36261574074</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38846,7 +38846,7 @@
         <v>45114</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38903,7 +38903,7 @@
         <v>45973.5440162037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45757</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39017,7 +39017,7 @@
         <v>45973.36351851852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45973.36787037037</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45005</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39188,7 +39188,7 @@
         <v>45114</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39245,7 +39245,7 @@
         <v>45755.60673611111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39302,7 +39302,7 @@
         <v>44904.43054398148</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39359,7 +39359,7 @@
         <v>45520.61289351852</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39421,7 +39421,7 @@
         <v>45884.41150462963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39478,7 +39478,7 @@
         <v>45155</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>45979.38047453704</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>45978.48197916667</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45979.5778125</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45685.48523148148</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45539</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45545.54909722223</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>45979.454375</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39959,7 +39959,7 @@
         <v>45224.65313657407</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45737.55303240741</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45427</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45763.33773148148</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40197,7 +40197,7 @@
         <v>45436</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40254,7 +40254,7 @@
         <v>45978.49891203704</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40316,7 +40316,7 @@
         <v>45575.67871527778</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40373,7 +40373,7 @@
         <v>45737.41623842593</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40430,7 +40430,7 @@
         <v>45979.46834490741</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40492,7 +40492,7 @@
         <v>45980.25484953704</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40549,7 +40549,7 @@
         <v>45980.44158564815</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40611,7 +40611,7 @@
         <v>45980.33506944445</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40673,7 +40673,7 @@
         <v>45980.59350694445</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40735,7 +40735,7 @@
         <v>45462.96380787037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40797,7 +40797,7 @@
         <v>45980.42696759259</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40859,7 +40859,7 @@
         <v>45980.45418981482</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40921,7 +40921,7 @@
         <v>45452.64719907408</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40978,7 +40978,7 @@
         <v>45982.54563657408</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45971.73069444444</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>44491</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45526</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41216,7 +41216,7 @@
         <v>45576.58743055556</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>45985.67225694445</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41335,7 +41335,7 @@
         <v>45558.49664351852</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41417,7 +41417,7 @@
         <v>45985.47521990741</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41474,7 +41474,7 @@
         <v>45397.48680555556</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41531,7 +41531,7 @@
         <v>45985.3935300926</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41588,7 +41588,7 @@
         <v>45743.58413194444</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41645,7 +41645,7 @@
         <v>45019</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41702,7 +41702,7 @@
         <v>44552</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41759,7 +41759,7 @@
         <v>46029.65706018519</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>45534.40083333333</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>45739</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>45469.61787037037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41997,7 +41997,7 @@
         <v>45554.47363425926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42054,7 +42054,7 @@
         <v>45554.49422453704</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42111,7 +42111,7 @@
         <v>46031</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42168,7 +42168,7 @@
         <v>45989.53918981482</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42230,7 +42230,7 @@
         <v>44917</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42287,7 +42287,7 @@
         <v>45163.80377314815</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42344,7 +42344,7 @@
         <v>46031.57356481482</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>45988.57400462963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>45677.58578703704</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42515,7 +42515,7 @@
         <v>45763.48916666667</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>46035.48497685185</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42634,7 +42634,7 @@
         <v>45993.52770833333</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42691,7 +42691,7 @@
         <v>45750.43831018519</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>45163</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>45616.38167824074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42877,7 +42877,7 @@
         <v>44494</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42934,7 +42934,7 @@
         <v>45993.4699537037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42991,7 +42991,7 @@
         <v>45993.39003472222</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43048,7 +43048,7 @@
         <v>45645.47677083333</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43105,7 +43105,7 @@
         <v>45994.35525462963</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43162,7 +43162,7 @@
         <v>44925</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         <v>45994.65283564815</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45622.37261574074</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45629.62143518519</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45995.6921412037</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45995.46840277778</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>45995.45458333333</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>45994.34052083334</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44659</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43690,7 +43690,7 @@
         <v>45994.65636574074</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>45635</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43814,7 +43814,7 @@
         <v>45996</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43928,7 +43928,7 @@
         <v>44944</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44886</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44047,7 +44047,7 @@
         <v>45537</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45537</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44944</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44233,7 +44233,7 @@
         <v>44610</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>45538.61142361111</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>45331</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44414,7 +44414,7 @@
         <v>45216.95886574074</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44476,7 +44476,7 @@
         <v>45999.63164351852</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44533,7 +44533,7 @@
         <v>46041.56930555555</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44590,7 +44590,7 @@
         <v>46041.65482638889</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44647,7 +44647,7 @@
         <v>45230.59909722222</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44709,7 +44709,7 @@
         <v>46000.49335648148</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44766,7 +44766,7 @@
         <v>44914.33509259259</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44828,7 +44828,7 @@
         <v>45243.72438657407</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>45250.42211805555</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>45463</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45004,7 +45004,7 @@
         <v>46000.32271990741</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45061,7 +45061,7 @@
         <v>45748.35021990741</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>46000.50599537037</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45185,7 +45185,7 @@
         <v>46002.34806712963</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>46001.79376157407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>46002.58956018519</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>45385</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45413,7 +45413,7 @@
         <v>45512.92917824074</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45470,7 +45470,7 @@
         <v>45260</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45527,7 +45527,7 @@
         <v>46001.76815972223</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45584,7 +45584,7 @@
         <v>45474</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45646,7 +45646,7 @@
         <v>45338</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45703,7 +45703,7 @@
         <v>45468</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>45526</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>44783.54429398148</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45889,7 +45889,7 @@
         <v>46002.58393518518</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45946,7 +45946,7 @@
         <v>45001</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46008,7 +46008,7 @@
         <v>46002.35224537037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46065,7 +46065,7 @@
         <v>45616.38535879629</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46127,7 +46127,7 @@
         <v>45616.4003125</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46189,7 +46189,7 @@
         <v>45616.41386574074</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46251,7 +46251,7 @@
         <v>46006.47486111111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46313,7 +46313,7 @@
         <v>46006.55251157407</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46375,7 +46375,7 @@
         <v>45630.47672453704</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46437,7 +46437,7 @@
         <v>45326.97043981482</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46499,7 +46499,7 @@
         <v>45740.60420138889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
         <v>46006.61762731482</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46613,7 +46613,7 @@
         <v>46006.61631944445</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46670,7 +46670,7 @@
         <v>45601</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46727,7 +46727,7 @@
         <v>44925.66795138889</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46784,7 +46784,7 @@
         <v>46006.44251157407</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46846,7 +46846,7 @@
         <v>45560</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>46049.5721412037</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>46049.48510416667</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>45628.48769675926</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>46050.40957175926</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>46008.49003472222</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>45771.64439814815</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47255,7 +47255,7 @@
         <v>46009.55274305555</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47312,7 +47312,7 @@
         <v>45162.94581018519</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47374,7 +47374,7 @@
         <v>45007.95096064815</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>45596.46950231482</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47493,7 +47493,7 @@
         <v>45540.58892361111</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47555,7 +47555,7 @@
         <v>46009.59429398148</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47612,7 +47612,7 @@
         <v>44925</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47669,7 +47669,7 @@
         <v>44925</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47726,7 +47726,7 @@
         <v>44925</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47788,7 +47788,7 @@
         <v>46009.46953703704</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47845,7 +47845,7 @@
         <v>45645.45579861111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47902,7 +47902,7 @@
         <v>45225.40269675926</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47959,7 +47959,7 @@
         <v>46009.59435185185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -48016,7 +48016,7 @@
         <v>45307</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48078,7 +48078,7 @@
         <v>46031</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48140,7 +48140,7 @@
         <v>45537</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48202,7 +48202,7 @@
         <v>45685</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         <v>45135.58939814815</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48321,7 +48321,7 @@
         <v>46010.60195601852</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48378,7 +48378,7 @@
         <v>45390</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48435,7 +48435,7 @@
         <v>45751.67792824074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48497,7 +48497,7 @@
         <v>45597</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48554,7 +48554,7 @@
         <v>44423.50511574074</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48611,7 +48611,7 @@
         <v>44915</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48673,7 +48673,7 @@
         <v>45559.49487268519</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48735,7 +48735,7 @@
         <v>45076.94684027778</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48797,7 +48797,7 @@
         <v>45457</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>45520.51991898148</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48921,7 +48921,7 @@
         <v>45469.5581712963</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48983,7 +48983,7 @@
         <v>46014.44509259259</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -49040,7 +49040,7 @@
         <v>46014.44158564815</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49097,7 +49097,7 @@
         <v>46014.44659722222</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>45481.45671296296</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49216,7 +49216,7 @@
         <v>45453</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49278,7 +49278,7 @@
         <v>45646.63126157408</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49335,7 +49335,7 @@
         <v>45478</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49417,7 +49417,7 @@
         <v>45244</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49474,7 +49474,7 @@
         <v>46059.3803125</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49536,7 +49536,7 @@
         <v>45616.31673611111</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49593,7 +49593,7 @@
         <v>46059.40054398148</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49655,7 +49655,7 @@
         <v>45569.35552083333</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49712,7 +49712,7 @@
         <v>44910</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49774,7 +49774,7 @@
         <v>45152.44956018519</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49836,7 +49836,7 @@
         <v>44973.80899305556</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49898,7 +49898,7 @@
         <v>45625.58225694444</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49955,7 +49955,7 @@
         <v>45405</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -50012,7 +50012,7 @@
         <v>45425</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>45554.47037037037</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>45558.67090277778</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50188,7 +50188,7 @@
         <v>45328</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50245,7 +50245,7 @@
         <v>44886</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50302,7 +50302,7 @@
         <v>44995</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>45514.96219907407</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>45544</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>45517.61690972222</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44924.94068287037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50607,7 +50607,7 @@
         <v>45513.56297453704</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>45385.57305555556</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50726,7 +50726,7 @@
         <v>45509.45523148148</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50783,7 +50783,7 @@
         <v>45629.46908564815</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50845,7 +50845,7 @@
         <v>44845</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50902,7 +50902,7 @@
         <v>45676.86069444445</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50959,7 +50959,7 @@
         <v>45159</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -51036,7 +51036,7 @@
         <v>44441</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         <v>45229</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>45260.96678240741</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51212,7 +51212,7 @@
         <v>45559.43212962963</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51274,7 +51274,7 @@
         <v>44889</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51336,7 +51336,7 @@
         <v>45104.39052083333</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51398,7 +51398,7 @@
         <v>44818</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>44938.93825231482</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51517,7 +51517,7 @@
         <v>44902</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51574,7 +51574,7 @@
         <v>45596</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51631,7 +51631,7 @@
         <v>45420</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51688,7 +51688,7 @@
         <v>44641</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51745,7 +51745,7 @@
         <v>45555.48571759259</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51807,7 +51807,7 @@
         <v>45616.38693287037</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51869,7 +51869,7 @@
         <v>45719.64917824074</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51926,7 +51926,7 @@
         <v>45569.67591435185</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>45232</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>45763.26912037037</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>45231</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>45538.53047453704</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>45161.6918287037</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52293,7 +52293,7 @@
         <v>45537</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>45771.90070601852</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>45771</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52469,7 +52469,7 @@
         <v>44693</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52526,7 +52526,7 @@
         <v>45674.40556712963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45754</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45226.64099537037</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52702,7 +52702,7 @@
         <v>45448.70927083334</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52764,7 +52764,7 @@
         <v>45453.95478009259</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>45583.59901620371</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52888,7 +52888,7 @@
         <v>45645.41027777778</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52945,7 +52945,7 @@
         <v>45569.46443287037</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53007,7 +53007,7 @@
         <v>45042.92578703703</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -53064,7 +53064,7 @@
         <v>45560.38535879629</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53126,7 +53126,7 @@
         <v>45560.46020833333</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53188,7 +53188,7 @@
         <v>45596</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53245,7 +53245,7 @@
         <v>45596.54178240741</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53302,7 +53302,7 @@
         <v>45483.97041666666</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44383.37496527778</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44911.93910879629</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53483,7 +53483,7 @@
         <v>45677</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53540,7 +53540,7 @@
         <v>45532.74556712963</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53597,7 +53597,7 @@
         <v>45098</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         <v>45748.55476851852</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53721,7 +53721,7 @@
         <v>45442</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53783,7 +53783,7 @@
         <v>45644.36103009259</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53845,7 +53845,7 @@
         <v>45344</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53902,7 +53902,7 @@
         <v>45145</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53964,7 +53964,7 @@
         <v>45603.3777662037</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54026,7 +54026,7 @@
         <v>45327</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -54083,7 +54083,7 @@
         <v>45215.57974537037</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -54140,7 +54140,7 @@
         <v>45513.9633912037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54202,7 +54202,7 @@
         <v>44881</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54259,7 +54259,7 @@
         <v>45267</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54316,7 +54316,7 @@
         <v>45737.58700231482</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54373,7 +54373,7 @@
         <v>45560.64589120371</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54435,7 +54435,7 @@
         <v>45531.69771990741</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54497,7 +54497,7 @@
         <v>45447</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54554,7 +54554,7 @@
         <v>45211</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54611,7 +54611,7 @@
         <v>45665</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54673,7 +54673,7 @@
         <v>45247</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54735,7 +54735,7 @@
         <v>45151.94431712963</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54797,7 +54797,7 @@
         <v>45541.42739583334</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54859,7 +54859,7 @@
         <v>45541.42741898148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54921,7 +54921,7 @@
         <v>45069</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54978,7 +54978,7 @@
         <v>45559.43377314815</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55040,7 +55040,7 @@
         <v>45453.92482638889</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -55097,7 +55097,7 @@
         <v>44977.98320601852</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -55159,7 +55159,7 @@
         <v>45513.96297453704</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55221,7 +55221,7 @@
         <v>45113</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55278,7 +55278,7 @@
         <v>44971</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55335,7 +55335,7 @@
         <v>45329</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55392,7 +55392,7 @@
         <v>45684.62690972222</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55449,7 +55449,7 @@
         <v>44916</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55511,7 +55511,7 @@
         <v>45616.65744212963</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55573,7 +55573,7 @@
         <v>44925.59396990741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55630,7 +55630,7 @@
         <v>44614</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55687,7 +55687,7 @@
         <v>44479</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55744,7 +55744,7 @@
         <v>45513.45313657408</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55806,7 +55806,7 @@
         <v>44860</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55863,7 +55863,7 @@
         <v>45740.61157407407</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55920,7 +55920,7 @@
         <v>45560.60815972222</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55982,7 +55982,7 @@
         <v>45560.64923611111</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56044,7 +56044,7 @@
         <v>45560.65291666667</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -56106,7 +56106,7 @@
         <v>45254.6369675926</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -56163,7 +56163,7 @@
         <v>45734.65295138889</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56220,7 +56220,7 @@
         <v>45665.43998842593</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56277,7 +56277,7 @@
         <v>45737.38648148148</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56334,7 +56334,7 @@
         <v>45163.61561342593</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56396,7 +56396,7 @@
         <v>45603.67048611111</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56453,7 +56453,7 @@
         <v>45715.67895833333</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56510,7 +56510,7 @@
         <v>45740.6012962963</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56567,7 +56567,7 @@
         <v>44925.62908564815</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56624,7 +56624,7 @@
         <v>44925.63877314814</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56681,7 +56681,7 @@
         <v>44455</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56738,7 +56738,7 @@
         <v>45518</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56795,7 +56795,7 @@
         <v>45068.3797337963</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56852,7 +56852,7 @@
         <v>45559.4494675926</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56914,7 +56914,7 @@
         <v>45260</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56976,7 +56976,7 @@
         <v>45665</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -57038,7 +57038,7 @@
         <v>45530</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -57095,7 +57095,7 @@
         <v>45484.85026620371</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -57152,7 +57152,7 @@
         <v>44565.92798611111</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57209,7 +57209,7 @@
         <v>45448</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57271,7 +57271,7 @@
         <v>44572</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57328,7 +57328,7 @@
         <v>45530</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57390,7 +57390,7 @@
         <v>45737.41443287037</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57447,7 +57447,7 @@
         <v>44925</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57504,7 +57504,7 @@
         <v>45460</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57566,7 +57566,7 @@
         <v>45568.93936342592</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57623,7 +57623,7 @@
         <v>45560</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57685,7 +57685,7 @@
         <v>45105.94494212963</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57747,7 +57747,7 @@
         <v>44376</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57804,7 +57804,7 @@
         <v>45514.96238425926</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57866,7 +57866,7 @@
         <v>45306.97434027777</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57928,7 +57928,7 @@
         <v>45601</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57985,7 +57985,7 @@
         <v>45601</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -58042,7 +58042,7 @@
         <v>45520.46878472222</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -58104,7 +58104,7 @@
         <v>45559.55923611111</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -58166,7 +58166,7 @@
         <v>45261.96797453704</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58228,7 +58228,7 @@
         <v>45261</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58290,7 +58290,7 @@
         <v>45740.61497685185</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58347,7 +58347,7 @@
         <v>45338</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58404,7 +58404,7 @@
         <v>45635.45777777778</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58461,7 +58461,7 @@
         <v>45674</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58518,7 +58518,7 @@
         <v>45589.65295138889</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58580,7 +58580,7 @@
         <v>45589.6599074074</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58642,7 +58642,7 @@
         <v>45677.39728009259</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         <v>45471</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58761,7 +58761,7 @@
         <v>45628</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58823,7 +58823,7 @@
         <v>45628</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58885,7 +58885,7 @@
         <v>45453</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58947,7 +58947,7 @@
         <v>45453</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -59009,7 +59009,7 @@
         <v>45754.67600694444</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -59066,7 +59066,7 @@
         <v>45614.44842592593</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -59128,7 +59128,7 @@
         <v>45614.44863425926</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -59190,7 +59190,7 @@
         <v>45743</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -59247,7 +59247,7 @@
         <v>45666</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -59309,7 +59309,7 @@
         <v>45210</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59371,7 +59371,7 @@
         <v>45701.91782407407</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59428,7 +59428,7 @@
         <v>45600.60490740741</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59485,7 +59485,7 @@
         <v>45452</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59542,7 +59542,7 @@
         <v>45643.49013888889</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59604,7 +59604,7 @@
         <v>45646.62806712963</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59661,7 +59661,7 @@
         <v>45436</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59723,7 +59723,7 @@
         <v>45630.34488425926</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59785,7 +59785,7 @@
         <v>45737.59420138889</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59842,7 +59842,7 @@
         <v>45776.63987268518</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59899,7 +59899,7 @@
         <v>45777</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59961,7 +59961,7 @@
         <v>45777.44890046296</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -60023,7 +60023,7 @@
         <v>45777</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -60085,7 +60085,7 @@
         <v>45776</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -60142,7 +60142,7 @@
         <v>45777</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -60204,7 +60204,7 @@
         <v>45777</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -60266,7 +60266,7 @@
         <v>45777</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -60328,7 +60328,7 @@
         <v>45776.6444212963</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60385,7 +60385,7 @@
         <v>44949</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60447,7 +60447,7 @@
         <v>44875</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60509,7 +60509,7 @@
         <v>45783.51090277778</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         <v>45782.62412037037</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60633,7 +60633,7 @@
         <v>45783.44258101852</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60695,7 +60695,7 @@
         <v>45785.94577546296</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60752,7 +60752,7 @@
         <v>45786.5508449074</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60814,7 +60814,7 @@
         <v>45789.33638888889</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60871,7 +60871,7 @@
         <v>45786.47739583333</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60933,7 +60933,7 @@
         <v>45789.6282175926</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60995,7 +60995,7 @@
         <v>45789.29510416667</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -61052,7 +61052,7 @@
         <v>45788.52340277778</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -61114,7 +61114,7 @@
         <v>45296</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -61171,7 +61171,7 @@
         <v>45460.62152777778</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -61233,7 +61233,7 @@
         <v>45790.40627314815</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -61290,7 +61290,7 @@
         <v>45793.44201388889</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -61352,7 +61352,7 @@
         <v>45793.44805555556</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -61429,7 +61429,7 @@
         <v>45793.44913194444</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -61486,7 +61486,7 @@
         <v>45796.67317129629</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -61548,7 +61548,7 @@
         <v>45793</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -61605,7 +61605,7 @@
         <v>44652</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -61662,7 +61662,7 @@
         <v>45796.41136574074</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -61724,7 +61724,7 @@
         <v>45671.49204861111</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -61781,7 +61781,7 @@
         <v>45320.95365740741</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -61843,7 +61843,7 @@
         <v>45794</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -61900,7 +61900,7 @@
         <v>45516.43074074074</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
